--- a/documentacao/planilhas/BACKLOG.xlsx
+++ b/documentacao/planilhas/BACKLOG.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aluno\Desktop\Projeto-PI\documentacao\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB449697-2375-410F-A118-0F044EFEAD56}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -57,18 +56,6 @@
     <t>RF8</t>
   </si>
   <si>
-    <t>Configurar o Banco de Dados para criação de tabelas</t>
-  </si>
-  <si>
-    <t>O Projeto deve conter o protótipo do site Institucional</t>
-  </si>
-  <si>
-    <t>Fazer um cadastro no Azure</t>
-  </si>
-  <si>
-    <t>Inserir os dados na tabela (usuário) no Azure</t>
-  </si>
-  <si>
     <t>RF9</t>
   </si>
   <si>
@@ -81,9 +68,6 @@
     <t>RF12</t>
   </si>
   <si>
-    <t>Deve conectar o hardware Arduíno no software IDE para fazer os códigos e concluir a funcionalidade do sistema</t>
-  </si>
-  <si>
     <t>Importante</t>
   </si>
   <si>
@@ -126,28 +110,43 @@
     <t>RF13</t>
   </si>
   <si>
-    <t>Ter uma tela de simulador financeiro, onde o usuário irá inserir um valor total (Manutenção, produtos, perdas com a morte do animal)  para que possa ser calculado o quanto ele economizará.</t>
-  </si>
-  <si>
     <t>Pesquisa com os clientes cadastrados no site Institucional (Perguntas: Espécie do Réptil, tamanho do terrário (Largura e Comprimento).</t>
   </si>
   <si>
     <t>Desejável</t>
   </si>
   <si>
-    <t>criar redes socias (linkdIn,intragram)</t>
-  </si>
-  <si>
     <t>RF14</t>
   </si>
   <si>
-    <t>Ter uma página no site Intutucional (Home, Sobre, Benefícios, Simulador, Quem Somos, O que falam, Blog, Login, Cadastro)</t>
+    <t>Redes socias (linkdIn,intragram)</t>
+  </si>
+  <si>
+    <t>Protótipo do site Institucional</t>
+  </si>
+  <si>
+    <t>Página no site Intutucional (Home, Sobre, Benefícios, Simulador, Quem Somos, O que falam, Blog, Login, Cadastro)</t>
+  </si>
+  <si>
+    <t>Tela de simulador financeiro, onde o usuário irá inserir a quantidade de sensores que ele precisa  para que possa ser calculado o orçamento.</t>
+  </si>
+  <si>
+    <t>Cadastro no Azure</t>
+  </si>
+  <si>
+    <t>Banco de Dados no MySQL para criação de tabelas</t>
+  </si>
+  <si>
+    <t>Dados na tabela (usuário) no Azure</t>
+  </si>
+  <si>
+    <t>Conectar o hardware Arduíno no software IDE para fazer os códigos e concluir a funcionalidade do sistema</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -861,11 +860,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -879,10 +878,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>0</v>
@@ -897,10 +896,10 @@
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="28" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -908,13 +907,13 @@
         <v>3</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C3" s="28" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -923,10 +922,10 @@
       </c>
       <c r="B4" s="29"/>
       <c r="C4" s="28" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -935,10 +934,10 @@
       </c>
       <c r="B5" s="30"/>
       <c r="C5" s="28" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -947,10 +946,10 @@
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="17" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -958,13 +957,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -973,10 +972,10 @@
       </c>
       <c r="B8" s="19"/>
       <c r="C8" s="17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -985,86 +984,86 @@
       </c>
       <c r="B9" s="34"/>
       <c r="C9" s="31" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="21" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="22" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="22" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B14" s="14"/>
       <c r="C14" s="24" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
